--- a/hardware/gen5/MotorModule/motor_board_BOM.xlsx
+++ b/hardware/gen5/MotorModule/motor_board_BOM.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MotorBoard_BOM" localSheetId="0">Sheet1!$A$1:$E$18</definedName>
+    <definedName name="MotorBoard_BOM" localSheetId="0">Sheet1!$A$1:$E$16</definedName>
   </definedNames>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
   <si>
     <t>Partlist exp</t>
   </si>
@@ -114,18 +114,6 @@
     <t>Zener Diode</t>
   </si>
   <si>
-    <t>IC2</t>
-  </si>
-  <si>
-    <t>3.3V REG</t>
-  </si>
-  <si>
-    <t>SOT223</t>
-  </si>
-  <si>
-    <t>VOLTAGE REGULATOR</t>
-  </si>
-  <si>
     <t>J1</t>
   </si>
   <si>
@@ -192,12 +180,6 @@
     <t>QFN40-6X6</t>
   </si>
   <si>
-    <t>U$2</t>
-  </si>
-  <si>
-    <t>INDUCTOR</t>
-  </si>
-  <si>
     <t>Digikey Part Number</t>
   </si>
   <si>
@@ -216,9 +198,6 @@
     <t>C1,C4</t>
   </si>
   <si>
-    <t>C3,C5,C6,C8,C12,C13</t>
-  </si>
-  <si>
     <t>C2,C7</t>
   </si>
   <si>
@@ -237,9 +216,6 @@
     <t>311-1.0KARCT-ND</t>
   </si>
   <si>
-    <t>R1,R7,R9,R63,R99,R101,R103</t>
-  </si>
-  <si>
     <t>311-240ARCT-ND</t>
   </si>
   <si>
@@ -282,40 +258,16 @@
     <t xml:space="preserve">754-1156-1-ND (orange) </t>
   </si>
   <si>
-    <t>LT1129CST5</t>
-  </si>
-  <si>
-    <t>LT1129CST-5#PBF-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likely don’t need voltage </t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulator on motor board - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">use 3.3 from main board or </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5V out from motor controller. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">For testing, use 5V regulator and </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pull ups on M3 and don’t connect </t>
-  </si>
-  <si>
-    <t>discrete pull ups on motor board.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 160-1643-1-ND (blue)</t>
   </si>
   <si>
     <t>160-1166-1-ND (amber)</t>
   </si>
   <si>
-    <t>587-1932-1-ND</t>
+    <t>C6,C8,C12,C13</t>
+  </si>
+  <si>
+    <t>R1,R99,R101,R103</t>
   </si>
 </sst>
 </file>
@@ -680,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,15 +682,15 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -753,7 +705,7 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>0.1</v>
@@ -761,7 +713,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -776,7 +728,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>0.77</v>
@@ -784,7 +736,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -799,7 +751,7 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G6">
         <v>0.1</v>
@@ -822,7 +774,7 @@
         <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G7">
         <v>0.49</v>
@@ -836,7 +788,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -845,90 +797,90 @@
         <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="G8">
-        <v>4.5199999999999996</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
       <c r="F9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9">
-        <v>1.51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>45</v>
+      </c>
+      <c r="G10">
+        <v>0.7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11">
+        <v>805</v>
+      </c>
+      <c r="E11" t="s">
         <v>34</v>
       </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G11">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>805</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G12">
         <v>0.1</v>
@@ -936,22 +888,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
+        <v>48</v>
+      </c>
+      <c r="B13">
+        <v>240</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <v>805</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G13">
         <v>0.1</v>
@@ -959,22 +911,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14">
-        <v>240</v>
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>805</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G14">
         <v>0.1</v>
@@ -982,33 +934,33 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>0.05</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
         <v>40</v>
       </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15">
-        <v>805</v>
-      </c>
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G15">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
-      <c r="B16">
-        <v>0.05</v>
+      <c r="B16" t="s">
+        <v>42</v>
       </c>
       <c r="C16" t="s">
         <v>42</v>
@@ -1016,132 +968,64 @@
       <c r="D16" t="s">
         <v>43</v>
       </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G16">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17">
         <v>2.19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18">
-        <v>805</v>
-      </c>
-      <c r="F18" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F20" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G21">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>80</v>
-      </c>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G22">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>81</v>
-      </c>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G23">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>82</v>
-      </c>
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G24">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26">
         <v>0.39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/gen5/MotorModule/motor_board_BOM.xlsx
+++ b/hardware/gen5/MotorModule/motor_board_BOM.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joncr_000\robocup\robocup-ee\hardware\gen5\MotorModule\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27729"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="27740" windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,8 +12,11 @@
   <definedNames>
     <definedName name="MotorBoard_BOM" localSheetId="0">Sheet1!$A$1:$E$16</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -273,8 +271,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +284,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -308,14 +322,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -378,7 +404,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -430,7 +456,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -624,7 +650,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -635,20 +661,20 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -665,7 +691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -688,7 +714,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -711,7 +737,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -734,7 +760,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -757,7 +783,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -780,7 +806,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -803,7 +829,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -820,7 +846,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -840,7 +866,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -863,7 +889,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -886,7 +912,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -909,7 +935,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -932,7 +958,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -955,7 +981,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -975,12 +1001,12 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:7">
       <c r="F18" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:7">
       <c r="F19" t="s">
         <v>66</v>
       </c>
@@ -988,7 +1014,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:7">
       <c r="F20" t="s">
         <v>67</v>
       </c>
@@ -996,7 +1022,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:7">
       <c r="F21" t="s">
         <v>68</v>
       </c>
@@ -1004,7 +1030,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:7">
       <c r="F22" t="s">
         <v>69</v>
       </c>
@@ -1012,7 +1038,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:7">
       <c r="F23" t="s">
         <v>71</v>
       </c>
@@ -1020,7 +1046,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:7">
       <c r="F24" t="s">
         <v>70</v>
       </c>
@@ -1030,6 +1056,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>